--- a/SubRES_TMPL/SubRES_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs_Trans.xlsx
@@ -1,27 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77582279-FBE0-4DDC-84B9-EC47BBE4AC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1964A820-CA2A-493E-B1F8-732076F8C5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AVA" sheetId="18" r:id="rId1"/>
-    <sheet name="Trans Tables" sheetId="17" r:id="rId2"/>
-    <sheet name="FILL Table" sheetId="19" r:id="rId3"/>
+    <sheet name="AF_Trans" sheetId="20" r:id="rId1"/>
+    <sheet name="AVA" sheetId="18" r:id="rId2"/>
+    <sheet name="Trans Tables" sheetId="17" r:id="rId3"/>
+    <sheet name="FILL Table" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{FF4C519A-314E-423E-AB0E-6C67D9487774}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{E8EB0170-ECE9-4105-9C5E-D0FA4C98A1FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{CAECD70C-56F0-4299-8C63-07891A7137F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
@@ -56,7 +108,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
@@ -148,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="74">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -217,16 +269,170 @@
   </si>
   <si>
     <t>ETH</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>W_01</t>
+  </si>
+  <si>
+    <t>W_02</t>
+  </si>
+  <si>
+    <t>W_03</t>
+  </si>
+  <si>
+    <t>W_04</t>
+  </si>
+  <si>
+    <t>W_05</t>
+  </si>
+  <si>
+    <t>W_06</t>
+  </si>
+  <si>
+    <t>W_07</t>
+  </si>
+  <si>
+    <t>W_08</t>
+  </si>
+  <si>
+    <t>W_09</t>
+  </si>
+  <si>
+    <t>W_10</t>
+  </si>
+  <si>
+    <t>W_11</t>
+  </si>
+  <si>
+    <t>W_12</t>
+  </si>
+  <si>
+    <t>W_13</t>
+  </si>
+  <si>
+    <t>W_14</t>
+  </si>
+  <si>
+    <t>W_15</t>
+  </si>
+  <si>
+    <t>W_16</t>
+  </si>
+  <si>
+    <t>W_17</t>
+  </si>
+  <si>
+    <t>W_18</t>
+  </si>
+  <si>
+    <t>W_19</t>
+  </si>
+  <si>
+    <t>W_20</t>
+  </si>
+  <si>
+    <t>W_21</t>
+  </si>
+  <si>
+    <t>W_22</t>
+  </si>
+  <si>
+    <t>W_23</t>
+  </si>
+  <si>
+    <t>W_24</t>
+  </si>
+  <si>
+    <t>D_01</t>
+  </si>
+  <si>
+    <t>D_02</t>
+  </si>
+  <si>
+    <t>D_03</t>
+  </si>
+  <si>
+    <t>D_04</t>
+  </si>
+  <si>
+    <t>D_05</t>
+  </si>
+  <si>
+    <t>D_06</t>
+  </si>
+  <si>
+    <t>D_07</t>
+  </si>
+  <si>
+    <t>D_08</t>
+  </si>
+  <si>
+    <t>D_09</t>
+  </si>
+  <si>
+    <t>D_10</t>
+  </si>
+  <si>
+    <t>D_11</t>
+  </si>
+  <si>
+    <t>D_12</t>
+  </si>
+  <si>
+    <t>D_13</t>
+  </si>
+  <si>
+    <t>D_14</t>
+  </si>
+  <si>
+    <t>D_15</t>
+  </si>
+  <si>
+    <t>D_16</t>
+  </si>
+  <si>
+    <t>D_17</t>
+  </si>
+  <si>
+    <t>D_18</t>
+  </si>
+  <si>
+    <t>D_19</t>
+  </si>
+  <si>
+    <t>D_20</t>
+  </si>
+  <si>
+    <t>D_21</t>
+  </si>
+  <si>
+    <t>D_22</t>
+  </si>
+  <si>
+    <t>D_23</t>
+  </si>
+  <si>
+    <t>D_24</t>
+  </si>
+  <si>
+    <t>WNDTRBN</t>
+  </si>
+  <si>
+    <t>SOLPV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -293,8 +499,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +579,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +597,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -694,6 +918,1738 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E39CA8-E622-4EC6-B5A7-6B0C4E956FF0}">
+  <dimension ref="B3:O102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A78" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55:I102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2030</v>
+      </c>
+      <c r="G7" s="13">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2030</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2030</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2030</v>
+      </c>
+      <c r="G10">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2030</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2030</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2030</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2030</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2.8314721319216154E-3</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2030</v>
+      </c>
+      <c r="G15">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2030</v>
+      </c>
+      <c r="G16">
+        <v>2.6656478128544076E-3</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2030</v>
+      </c>
+      <c r="G17">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2030</v>
+      </c>
+      <c r="G18">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2030</v>
+      </c>
+      <c r="G19">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2030</v>
+      </c>
+      <c r="G20">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2030</v>
+      </c>
+      <c r="G21">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>2030</v>
+      </c>
+      <c r="G22">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2030</v>
+      </c>
+      <c r="G23">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2030</v>
+      </c>
+      <c r="G24">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2030</v>
+      </c>
+      <c r="G25">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>2030</v>
+      </c>
+      <c r="G26">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>2030</v>
+      </c>
+      <c r="G27">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>2030</v>
+      </c>
+      <c r="G28">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2030</v>
+      </c>
+      <c r="G29">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2030</v>
+      </c>
+      <c r="G30">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>2030</v>
+      </c>
+      <c r="G31">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>2030</v>
+      </c>
+      <c r="G32">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33">
+        <v>2030</v>
+      </c>
+      <c r="G33">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>2030</v>
+      </c>
+      <c r="G34">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2030</v>
+      </c>
+      <c r="G35">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>2030</v>
+      </c>
+      <c r="G36">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>2030</v>
+      </c>
+      <c r="G37">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>2030</v>
+      </c>
+      <c r="G38">
+        <v>2.8314721319216154E-3</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>2030</v>
+      </c>
+      <c r="G39">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>2030</v>
+      </c>
+      <c r="G40">
+        <v>2.6656478128544076E-3</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>2030</v>
+      </c>
+      <c r="G41">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>2030</v>
+      </c>
+      <c r="G42">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>2030</v>
+      </c>
+      <c r="G43">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>2030</v>
+      </c>
+      <c r="G44">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <v>2030</v>
+      </c>
+      <c r="G45">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>2030</v>
+      </c>
+      <c r="G46">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47">
+        <v>2030</v>
+      </c>
+      <c r="G47">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>2030</v>
+      </c>
+      <c r="G48">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>2030</v>
+      </c>
+      <c r="G49">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>2030</v>
+      </c>
+      <c r="G50">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>2030</v>
+      </c>
+      <c r="G51">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>2030</v>
+      </c>
+      <c r="G52">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53">
+        <v>2030</v>
+      </c>
+      <c r="G53">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54">
+        <v>2030</v>
+      </c>
+      <c r="G54">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <v>2030</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56">
+        <v>2030</v>
+      </c>
+      <c r="G56" s="16">
+        <v>0</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57">
+        <v>2030</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>2030</v>
+      </c>
+      <c r="G58" s="17">
+        <v>0</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>2030</v>
+      </c>
+      <c r="G59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>2030</v>
+      </c>
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>2030</v>
+      </c>
+      <c r="G61" s="17">
+        <v>6.9165519713261618E-3</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62">
+        <v>2030</v>
+      </c>
+      <c r="G62" s="17">
+        <v>4.9742853046594968E-2</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63">
+        <v>2030</v>
+      </c>
+      <c r="G63" s="17">
+        <v>0.12554577777777776</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64">
+        <v>2030</v>
+      </c>
+      <c r="G64" s="17">
+        <v>0.2058007025089606</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65">
+        <v>2030</v>
+      </c>
+      <c r="G65" s="17">
+        <v>0.27468446594982077</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66">
+        <v>2030</v>
+      </c>
+      <c r="G66" s="17">
+        <v>0.32637437275985665</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>2030</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0.35267560573476697</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>2030</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0.34322033691756271</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>2030</v>
+      </c>
+      <c r="G69" s="17">
+        <v>0.30308891039426522</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>2030</v>
+      </c>
+      <c r="G70" s="17">
+        <v>0.23170381362007167</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71">
+        <v>2030</v>
+      </c>
+      <c r="G71" s="17">
+        <v>0.14172651612903225</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>2030</v>
+      </c>
+      <c r="G72" s="16">
+        <v>5.3895483870967743E-2</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73">
+        <v>2030</v>
+      </c>
+      <c r="G73" s="16">
+        <v>2.6301935483870969E-3</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74">
+        <v>2030</v>
+      </c>
+      <c r="G74" s="16">
+        <v>0</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75">
+        <v>2030</v>
+      </c>
+      <c r="G75" s="16">
+        <v>0</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76">
+        <v>2030</v>
+      </c>
+      <c r="G76" s="16">
+        <v>0</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77">
+        <v>2030</v>
+      </c>
+      <c r="G77" s="16">
+        <v>0</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78">
+        <v>2030</v>
+      </c>
+      <c r="G78" s="16">
+        <v>0</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79">
+        <v>2030</v>
+      </c>
+      <c r="G79" s="16">
+        <v>0</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <v>2030</v>
+      </c>
+      <c r="G80" s="16">
+        <v>0</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81">
+        <v>2030</v>
+      </c>
+      <c r="G81" s="16">
+        <v>0</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82">
+        <v>2030</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>2030</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84">
+        <v>2030</v>
+      </c>
+      <c r="G84" s="16">
+        <v>0</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85">
+        <v>2030</v>
+      </c>
+      <c r="G85" s="16">
+        <v>6.4190919952210254E-3</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86">
+        <v>2030</v>
+      </c>
+      <c r="G86" s="16">
+        <v>7.0838474313022717E-2</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87">
+        <v>2030</v>
+      </c>
+      <c r="G87" s="16">
+        <v>0.15999428793309439</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>2030</v>
+      </c>
+      <c r="G88" s="16">
+        <v>0.25343209199522099</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89">
+        <v>2030</v>
+      </c>
+      <c r="G89" s="16">
+        <v>0.32960197968936678</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>2030</v>
+      </c>
+      <c r="G90" s="16">
+        <v>0.37592762246117079</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91">
+        <v>2030</v>
+      </c>
+      <c r="G91" s="16">
+        <v>0.38776096057347664</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92">
+        <v>2030</v>
+      </c>
+      <c r="G92" s="16">
+        <v>0.36426783751493425</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <v>2030</v>
+      </c>
+      <c r="G93" s="16">
+        <v>0.31009156033452806</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94">
+        <v>2030</v>
+      </c>
+      <c r="G94" s="16">
+        <v>0.23188419952210276</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95">
+        <v>2030</v>
+      </c>
+      <c r="G95" s="16">
+        <v>0.13618056033452808</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>2030</v>
+      </c>
+      <c r="G96" s="16">
+        <v>4.9357593787335743E-2</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97">
+        <v>2030</v>
+      </c>
+      <c r="G97" s="16">
+        <v>7.5268817204301086E-6</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98">
+        <v>2030</v>
+      </c>
+      <c r="G98" s="16">
+        <v>0</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99">
+        <v>2030</v>
+      </c>
+      <c r="G99" s="16">
+        <v>0</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100">
+        <v>2030</v>
+      </c>
+      <c r="G100" s="16">
+        <v>0</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101">
+        <v>2030</v>
+      </c>
+      <c r="G101" s="16">
+        <v>0</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102">
+        <v>2030</v>
+      </c>
+      <c r="G102" s="17">
+        <v>0</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O4"/>
   <sheetViews>
@@ -701,15 +2657,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
@@ -722,7 +2678,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -772,43 +2728,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:O14"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -821,7 +2777,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -865,7 +2821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="E7" s="8"/>
@@ -879,7 +2835,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
@@ -892,7 +2848,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -945,37 +2901,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
